--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2975740.455757335</v>
+        <v>2973488.376046128</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.06572860963082</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>83.56741318567356</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>10.93787135974289</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>215.4998119806364</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021059958</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>71.68269007698007</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
-        <v>161.642665138609</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>202.010597649572</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>123.2840871772258</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072265</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505312</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>257.7339841265554</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187902</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>109.0404882242245</v>
       </c>
       <c r="D16" t="n">
-        <v>103.1226065694015</v>
+        <v>1.287209419513538e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>1.287209419513538e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>1.287209419513538e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.24617119909943</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289883</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>67.97896981790605</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716562</v>
       </c>
       <c r="F25" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>140.9357387834181</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444126</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>113.5413580759696</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235232844</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>96.02642072444128</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,16 +3478,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>223.6233581343933</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>10.63412424768254</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.600826611595375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>137.7610225486949</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1495.089731832625</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C2" t="n">
-        <v>1126.127214892214</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D2" t="n">
-        <v>767.8615162854633</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="E2" t="n">
-        <v>382.0732636872191</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4337,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,49 +4410,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2343.035006464575</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>2174.098823536668</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>2023.982184124332</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.069090541939</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>3107.929243850952</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>2853.244755645065</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>2563.827585608105</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>2563.827585608105</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>2343.035006464575</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855439</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>942.9472709150275</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D5" t="n">
-        <v>584.6815723082771</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E5" t="n">
-        <v>198.8933197100328</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>191.9478189608294</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>180.9157728462299</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919561</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919561</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>844.1713638478171</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199102</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199102</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>527.3220873375171</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1764.019128756565</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1474.601958719604</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1246.612407821587</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1025.819828678057</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3121.554712872229</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3121.554712872229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2790.491825528658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.723170258544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.723170258544</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364621</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>753.0765981364621</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>602.9599587241263</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>602.9599587241263</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>456.0700112262159</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>288.3671746009348</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110232</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667018</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551879</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616001</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718135</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.355259300792</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.97840879586</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142535</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142535</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y13" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311989</v>
+        <v>741.8431516380879</v>
       </c>
       <c r="C16" t="n">
-        <v>801.6918836311989</v>
+        <v>631.7012443408914</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408913</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408912</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614387</v>
+        <v>923.4916164683277</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5519,46 +5519,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>214.9229991561138</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K21" t="n">
-        <v>214.9229991561138</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>740.5562989961526</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1368.15426255076</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,22 +6127,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098242</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819173</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695815</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640064</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958739</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261136</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,13 +6947,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>866.4638174991042</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711973</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.904861472874</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1048.112282329344</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7163,22 +7163,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368213</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>481.4479471244855</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>333.5348535420924</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>186.644906044182</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1337.934786622704</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1889.844516861991</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.9786782557277</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.6271430859674</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7725,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
         <v>1103.652278938886</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>557.5558870561822</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>388.6197041282753</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1187.986481927969</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>959.9969310299521</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>739.2043518864219</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711709</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>28.78901421003559</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>58.2063328744035</v>
       </c>
       <c r="D16" t="n">
-        <v>45.49286644881082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.5858089828379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922406</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>99.26785128072179</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556018</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
-        <v>45.44677382459265</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>84.77391660561906</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.89260457059957</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.680971610991</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>71.22040037418655</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,16 +25366,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>62.89964020219767</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>154.8900140445863</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.9838267404994</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>43.26526345294974</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739850.7069512765</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>739850.7069512764</v>
+        <v>739850.7069512765</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739850.7069512763</v>
+        <v>739850.7069512764</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.609736506</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.609736506</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.609736506</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365061</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>1.029767535610831e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.029767535610831e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820625</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
+        <v>14216.75207685485</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14216.75207685485</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685497</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14216.75207685499</v>
+      </c>
+      <c r="I4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14216.75207685503</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.75207685503</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685504</v>
       </c>
       <c r="K4" t="n">
+        <v>14216.7520768551</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14216.75207685504</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="N4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.75207685501</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14216.75207685506</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26476,13 +26476,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-832196.9687525514</v>
       </c>
       <c r="C6" t="n">
+        <v>496547.7769750413</v>
+      </c>
+      <c r="D6" t="n">
         <v>496547.776975041</v>
       </c>
-      <c r="D6" t="n">
-        <v>496547.7769750416</v>
-      </c>
       <c r="E6" t="n">
-        <v>245322.8660283886</v>
+        <v>245288.1281029519</v>
       </c>
       <c r="F6" t="n">
-        <v>570735.3278357437</v>
+        <v>570700.5899103082</v>
       </c>
       <c r="G6" t="n">
-        <v>570735.3278357435</v>
+        <v>570700.5899103079</v>
       </c>
       <c r="H6" t="n">
-        <v>570735.3278357439</v>
+        <v>570700.5899103077</v>
       </c>
       <c r="I6" t="n">
-        <v>570735.3278357435</v>
+        <v>570700.5899103081</v>
       </c>
       <c r="J6" t="n">
-        <v>353204.1254384664</v>
+        <v>353169.3875130308</v>
       </c>
       <c r="K6" t="n">
-        <v>570735.3278357435</v>
+        <v>570700.5899103081</v>
       </c>
       <c r="L6" t="n">
-        <v>570735.3278357434</v>
+        <v>570700.589910308</v>
       </c>
       <c r="M6" t="n">
-        <v>485680.2999002322</v>
+        <v>485645.5619747959</v>
       </c>
       <c r="N6" t="n">
-        <v>570735.3278357437</v>
+        <v>570700.5899103082</v>
       </c>
       <c r="O6" t="n">
-        <v>570735.3278357435</v>
+        <v>570700.5899103082</v>
       </c>
       <c r="P6" t="n">
-        <v>570735.3278357439</v>
+        <v>570700.5899103084</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,22 +26790,22 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.287209419513538e-13</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.287209419513538e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,25 +26960,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.287209419513538e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>363.6681130538498</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>323.3086325560379</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.4145490500952</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>70.71202622497646</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616622</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>222.9250743103404</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
-        <v>90.49497818521897</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.907372490048175</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>21.47092773709498</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,13 +28096,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.282229703125126e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.287209419513537e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28494,64 +28494,64 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-4.354871717679011e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.287209419513538e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-5.681602616057837e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>506.5665344352336</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.631495613094</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669242</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>368.6279838366843</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>232.7599890885191</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>247.3820194983584</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>675.9520178182473</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>263.7590256391492</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>171.5999003578894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>235.5705495535871</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>618.3341264639744</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>300.7687781170413</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,7 +34454,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>171.5999003578897</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132152</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707244</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998983</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924747</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164546</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>237.286271753351</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,13 +35811,13 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.6317733066249</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281522</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>98.78558167418883</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>120.5443928316917</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>314.9434509778016</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>533.3557733738029</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>132.4173135558158</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>92.97430510914269</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>476.2000925419561</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>169.427066033708</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,7 +38102,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>29.46586643587134</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
